--- a/preprocessing/input/MVPCase1BedrijventerreinBasicExplicit/db_backboneConfig_MVPCase1BedrijventerreinBasic.xlsx
+++ b/preprocessing/input/MVPCase1BedrijventerreinBasicExplicit/db_backboneConfig_MVPCase1BedrijventerreinBasic.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\HOUJ\Documents\GitHub\HOLON\cloudclient\run_cloud_experiments\input\MVPCase1BedrijventerreinBasicExplicit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\HOUJ\Documents\GitHub\HOLON\preprocessing\input\MVPCase1BedrijventerreinBasicExplicit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6606D007-4366-4511-937E-EB67250297F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAE04A6-717B-41D8-B2A3-7A47B33F0559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9225" yWindow="3540" windowWidth="21600" windowHeight="11205" activeTab="4" xr2:uid="{C61B0771-0652-4F35-8DF1-D2D550B8F66D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{C61B0771-0652-4F35-8DF1-D2D550B8F66D}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -255,9 +255,6 @@
     <t>LOGISTICS</t>
   </si>
   <si>
-    <t>OTHER</t>
-  </si>
-  <si>
     <t>GRIDBATTERY</t>
   </si>
   <si>
@@ -298,6 +295,9 @@
   </si>
   <si>
     <t>Building_gas_burner_60kW</t>
+  </si>
+  <si>
+    <t>INDUSTRY_OTHER</t>
   </si>
 </sst>
 </file>
@@ -807,7 +807,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -882,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J2">
         <v>2000</v>
@@ -905,7 +905,7 @@
         <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
         <v>43</v>
@@ -917,7 +917,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J3">
         <v>1000</v>
@@ -952,7 +952,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J4">
         <v>2000</v>
@@ -972,7 +972,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
         <v>43</v>
@@ -987,7 +987,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J5">
         <v>1000</v>
@@ -1164,7 +1164,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1212,10 +1212,10 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -1235,7 +1235,7 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -1252,10 +1252,10 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -1275,7 +1275,7 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -1289,13 +1289,13 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -1309,13 +1309,13 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -1329,19 +1329,19 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" t="s">
         <v>84</v>
-      </c>
-      <c r="E8" t="s">
-        <v>85</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1349,13 +1349,13 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
         <v>83</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>84</v>
-      </c>
-      <c r="E9" t="s">
-        <v>85</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
